--- a/public/imported_files/import 20.xlsx
+++ b/public/imported_files/import 20.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3049" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3045" uniqueCount="266">
   <si>
     <t>01.16.01</t>
   </si>
@@ -827,7 +827,7 @@
     <numFmt numFmtId="169" formatCode="00.00"/>
     <numFmt numFmtId="170" formatCode="00,000,000.00"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -845,6 +845,13 @@
       <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -869,7 +876,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top"/>
@@ -915,6 +922,7 @@
       <alignment horizontal="left" vertical="top"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1220,8 +1228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I761"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="A364" workbookViewId="0">
+      <selection activeCell="A377" sqref="A377:XFD377"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12138,34 +12146,16 @@
         <v>10340</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A377" s="2">
-        <v>343</v>
-      </c>
-      <c r="B377" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C377" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="D377" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E377" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F377" s="4">
-        <v>0</v>
-      </c>
-      <c r="G377" s="4">
-        <v>0</v>
-      </c>
-      <c r="H377" s="4">
-        <v>0</v>
-      </c>
-      <c r="I377" s="4">
-        <v>0</v>
-      </c>
+    <row r="377" spans="1:9" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A377" s="2"/>
+      <c r="B377" s="1"/>
+      <c r="C377" s="1"/>
+      <c r="D377" s="1"/>
+      <c r="E377" s="1"/>
+      <c r="F377" s="4"/>
+      <c r="G377" s="4"/>
+      <c r="H377" s="4"/>
+      <c r="I377" s="4"/>
     </row>
     <row r="378" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
